--- a/data/full_data/kdpw.xlsx
+++ b/data/full_data/kdpw.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>CCP</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Q4-2017</t>
+  </si>
+  <si>
+    <t>Q4-2015</t>
   </si>
   <si>
     <t>Q2-2018</t>
@@ -486,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,58 +1431,58 @@
         <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>1509481</v>
+        <v>2401349</v>
       </c>
       <c r="F12" t="n">
-        <v>39720201</v>
+        <v>39137312</v>
       </c>
       <c r="G12" t="n">
-        <v>10710740</v>
+        <v>11051997</v>
       </c>
       <c r="H12" t="n">
-        <v>33542693</v>
+        <v>54894618</v>
       </c>
       <c r="I12" t="n">
-        <v>42128842</v>
+        <v>58014743</v>
       </c>
       <c r="J12" t="n">
-        <v>81078</v>
+        <v>311691</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>16771346</v>
+        <v>27447309</v>
       </c>
       <c r="M12" t="n">
-        <v>33461614</v>
+        <v>54582927</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>212450565.17</v>
+        <v>58454379</v>
       </c>
       <c r="P12" t="n">
-        <v>50386141</v>
+        <v>36959500</v>
       </c>
       <c r="Q12" t="n">
-        <v>133878954</v>
+        <v>98401951</v>
       </c>
       <c r="R12" t="n">
-        <v>141394567</v>
+        <v>101630212</v>
       </c>
       <c r="S12" t="n">
-        <v>276149720</v>
+        <v>224420054</v>
       </c>
       <c r="T12" t="n">
-        <v>275262861</v>
+        <v>222622985</v>
       </c>
       <c r="U12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1490,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>386861742</v>
+        <v>191294433</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1059193038</v>
+        <v>283420946</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1513,58 +1516,50 @@
         <v>31</v>
       </c>
       <c r="E13" t="n">
-        <v>1464406</v>
-      </c>
-      <c r="F13" t="n">
-        <v>39720201</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10710740</v>
-      </c>
+        <v>642344</v>
+      </c>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
       <c r="H13" t="n">
-        <v>32541054</v>
+        <v>14683932</v>
       </c>
       <c r="I13" t="n">
-        <v>32541054</v>
+        <v>14683932</v>
       </c>
       <c r="J13" t="n">
-        <v>107500</v>
+        <v>51974</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>16270527</v>
+        <v>7341966</v>
       </c>
       <c r="M13" t="n">
-        <v>32433554</v>
+        <v>14631957</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
-      <c r="O13" t="n">
-        <v>127957261.106925</v>
-      </c>
-      <c r="P13" t="n">
-        <v>97530105.3457548</v>
-      </c>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>31585875</v>
+        <v>22400659</v>
       </c>
       <c r="S13" t="n">
-        <v>44374960</v>
+        <v>26268715</v>
       </c>
       <c r="T13" t="n">
-        <v>44374960</v>
+        <v>26268715</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1572,14 +1567,12 @@
       <c r="X13" t="s"/>
       <c r="Y13" t="s"/>
       <c r="Z13" t="n">
-        <v>98088130</v>
+        <v>82453288</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
-      <c r="AB13" t="n">
-        <v>74831176255</v>
-      </c>
+      <c r="AB13" t="s"/>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
@@ -1598,58 +1591,58 @@
         <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>1984154</v>
+        <v>1509481</v>
       </c>
       <c r="F14" t="n">
-        <v>39110803</v>
+        <v>39720201</v>
       </c>
       <c r="G14" t="n">
-        <v>9541769</v>
+        <v>10710740</v>
       </c>
       <c r="H14" t="n">
-        <v>48617772</v>
+        <v>33542693</v>
       </c>
       <c r="I14" t="n">
-        <v>51646182</v>
+        <v>42128842</v>
       </c>
       <c r="J14" t="n">
-        <v>227457</v>
+        <v>81078</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>24308886</v>
+        <v>16771346</v>
       </c>
       <c r="M14" t="n">
-        <v>48390314</v>
+        <v>33461614</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>160884708.02</v>
+        <v>48580116</v>
       </c>
       <c r="P14" t="n">
-        <v>39408541.94</v>
+        <v>11521572</v>
       </c>
       <c r="Q14" t="n">
-        <v>135032903</v>
+        <v>133878954</v>
       </c>
       <c r="R14" t="n">
-        <v>139975654</v>
+        <v>141394567</v>
       </c>
       <c r="S14" t="n">
-        <v>269385038</v>
+        <v>276149720</v>
       </c>
       <c r="T14" t="n">
-        <v>266614952</v>
+        <v>275262861</v>
       </c>
       <c r="U14" t="n">
         <v>10</v>
       </c>
       <c r="V14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1660,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>207035041</v>
+        <v>386861742</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>302648465</v>
+        <v>1059193038</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1683,54 +1676,54 @@
         <v>31</v>
       </c>
       <c r="E15" t="n">
-        <v>966603</v>
-      </c>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
+        <v>1464406</v>
+      </c>
+      <c r="F15" t="n">
+        <v>39720201</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10710740</v>
+      </c>
       <c r="H15" t="n">
-        <v>23684697</v>
+        <v>32541054</v>
       </c>
       <c r="I15" t="n">
-        <v>23684697</v>
+        <v>32541054</v>
       </c>
       <c r="J15" t="n">
-        <v>70274</v>
+        <v>107500</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>11842348</v>
+        <v>16270527</v>
       </c>
       <c r="M15" t="n">
-        <v>23614422</v>
+        <v>32433554</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
-      <c r="O15" t="n">
-        <v>86588623.37919299</v>
-      </c>
-      <c r="P15" t="n">
-        <v>50393858</v>
-      </c>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>19597362</v>
+        <v>31585875</v>
       </c>
       <c r="S15" t="n">
-        <v>26274204</v>
+        <v>44374960</v>
       </c>
       <c r="T15" t="n">
-        <v>26227622</v>
+        <v>44374960</v>
       </c>
       <c r="U15" t="n">
         <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1738,13 +1731,13 @@
       <c r="X15" t="s"/>
       <c r="Y15" t="s"/>
       <c r="Z15" t="n">
-        <v>150812100</v>
+        <v>98088130</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>47528875585</v>
+        <v>74831176255</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -1764,31 +1757,31 @@
         <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>2017930</v>
+        <v>1984154</v>
       </c>
       <c r="F16" t="n">
-        <v>40811635</v>
+        <v>39110803</v>
       </c>
       <c r="G16" t="n">
-        <v>9956716</v>
+        <v>9541769</v>
       </c>
       <c r="H16" t="n">
-        <v>54424704</v>
+        <v>48617772</v>
       </c>
       <c r="I16" t="n">
-        <v>57041662</v>
+        <v>51646182</v>
       </c>
       <c r="J16" t="n">
-        <v>161934</v>
+        <v>227457</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>27212352</v>
+        <v>24308886</v>
       </c>
       <c r="M16" t="n">
-        <v>54262770</v>
+        <v>48390314</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1797,19 +1790,19 @@
         <v>160884708.02</v>
       </c>
       <c r="P16" t="n">
-        <v>50188996.06</v>
+        <v>39408541.94</v>
       </c>
       <c r="Q16" t="n">
-        <v>168716418</v>
+        <v>135032903</v>
       </c>
       <c r="R16" t="n">
-        <v>174207280</v>
+        <v>139975654</v>
       </c>
       <c r="S16" t="n">
-        <v>324054584</v>
+        <v>269385038</v>
       </c>
       <c r="T16" t="n">
-        <v>320894494</v>
+        <v>266614952</v>
       </c>
       <c r="U16" t="n">
         <v>10</v>
@@ -1826,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>251691600</v>
+        <v>207035041</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>428601177</v>
+        <v>302648465</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1849,48 +1842,48 @@
         <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>1060583</v>
+        <v>966603</v>
       </c>
       <c r="F17" t="s"/>
       <c r="G17" t="s"/>
       <c r="H17" t="n">
-        <v>28604507</v>
+        <v>23684697</v>
       </c>
       <c r="I17" t="n">
-        <v>28604507</v>
+        <v>23684697</v>
       </c>
       <c r="J17" t="n">
-        <v>91285</v>
+        <v>70274</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>14302253</v>
+        <v>11842348</v>
       </c>
       <c r="M17" t="n">
-        <v>28513221</v>
+        <v>23614422</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>109815896.300926</v>
+        <v>86588623.37919299</v>
       </c>
       <c r="P17" t="n">
-        <v>61561276.59305796</v>
+        <v>50393858</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>27859396</v>
+        <v>19597362</v>
       </c>
       <c r="S17" t="n">
-        <v>39801916</v>
+        <v>26274204</v>
       </c>
       <c r="T17" t="n">
-        <v>39801916</v>
+        <v>26227622</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -1904,13 +1897,13 @@
       <c r="X17" t="s"/>
       <c r="Y17" t="s"/>
       <c r="Z17" t="n">
-        <v>184987578</v>
+        <v>150812100</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>61047060214</v>
+        <v>47528875585</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -1930,58 +1923,58 @@
         <v>30</v>
       </c>
       <c r="E18" t="n">
-        <v>2360715</v>
+        <v>2017930</v>
       </c>
       <c r="F18" t="n">
-        <v>38636225</v>
+        <v>40811635</v>
       </c>
       <c r="G18" t="n">
-        <v>10910495</v>
+        <v>9956716</v>
       </c>
       <c r="H18" t="n">
-        <v>52501658</v>
+        <v>54424704</v>
       </c>
       <c r="I18" t="n">
-        <v>56028785</v>
+        <v>57041662</v>
       </c>
       <c r="J18" t="n">
-        <v>117545</v>
+        <v>161934</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>26250829</v>
+        <v>27212352</v>
       </c>
       <c r="M18" t="n">
-        <v>52384113</v>
+        <v>54262770</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>110865875.41</v>
+        <v>160884708.02</v>
       </c>
       <c r="P18" t="n">
-        <v>40228495.67</v>
+        <v>50188996.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>112159509</v>
+        <v>168716418</v>
       </c>
       <c r="R18" t="n">
-        <v>117163160</v>
+        <v>174207280</v>
       </c>
       <c r="S18" t="n">
-        <v>244511331</v>
+        <v>324054584</v>
       </c>
       <c r="T18" t="n">
-        <v>242209113</v>
+        <v>320894494</v>
       </c>
       <c r="U18" t="n">
         <v>10</v>
       </c>
       <c r="V18" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1992,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>177955294</v>
+        <v>251691600</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>426512021</v>
+        <v>428601177</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2015,48 +2008,48 @@
         <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>649200</v>
+        <v>1060583</v>
       </c>
       <c r="F19" t="s"/>
       <c r="G19" t="s"/>
       <c r="H19" t="n">
-        <v>14438037</v>
+        <v>28604507</v>
       </c>
       <c r="I19" t="n">
-        <v>14438276</v>
+        <v>28604507</v>
       </c>
       <c r="J19" t="n">
-        <v>43754</v>
+        <v>91285</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>7219018</v>
+        <v>14302253</v>
       </c>
       <c r="M19" t="n">
-        <v>14394282</v>
+        <v>28513221</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>78213429.3</v>
+        <v>109815896.300926</v>
       </c>
       <c r="P19" t="n">
-        <v>43160675.4713466</v>
+        <v>61561276.59305796</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16330062</v>
+        <v>27859396</v>
       </c>
       <c r="S19" t="n">
-        <v>22671262</v>
+        <v>39801916</v>
       </c>
       <c r="T19" t="n">
-        <v>22602420</v>
+        <v>39801916</v>
       </c>
       <c r="U19" t="n">
         <v>2</v>
@@ -2070,13 +2063,13 @@
       <c r="X19" t="s"/>
       <c r="Y19" t="s"/>
       <c r="Z19" t="n">
-        <v>127153174</v>
+        <v>184987578</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>27282610204</v>
+        <v>61047060214</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -2096,58 +2089,58 @@
         <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>1845891</v>
+        <v>2360715</v>
       </c>
       <c r="F20" t="n">
-        <v>40817429</v>
+        <v>38636225</v>
       </c>
       <c r="G20" t="n">
-        <v>9958130</v>
+        <v>10910495</v>
       </c>
       <c r="H20" t="n">
-        <v>46208895</v>
+        <v>52501658</v>
       </c>
       <c r="I20" t="n">
-        <v>52097929</v>
+        <v>56028785</v>
       </c>
       <c r="J20" t="n">
-        <v>128890</v>
+        <v>117545</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>23104447</v>
+        <v>26250829</v>
       </c>
       <c r="M20" t="n">
-        <v>46080004</v>
+        <v>52384113</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>160884708</v>
+        <v>110865875.41</v>
       </c>
       <c r="P20" t="n">
-        <v>54230273</v>
+        <v>40228495.67</v>
       </c>
       <c r="Q20" t="n">
-        <v>141489281</v>
+        <v>112159509</v>
       </c>
       <c r="R20" t="n">
-        <v>147948720</v>
+        <v>117163160</v>
       </c>
       <c r="S20" t="n">
-        <v>290486409</v>
+        <v>244511331</v>
       </c>
       <c r="T20" t="n">
-        <v>287854418</v>
+        <v>242209113</v>
       </c>
       <c r="U20" t="n">
         <v>10</v>
       </c>
       <c r="V20" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2158,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>234240464</v>
+        <v>177955294</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>323815835</v>
+        <v>426512021</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2181,48 +2174,48 @@
         <v>31</v>
       </c>
       <c r="E21" t="n">
-        <v>1232601</v>
+        <v>649200</v>
       </c>
       <c r="F21" t="s"/>
       <c r="G21" t="s"/>
       <c r="H21" t="n">
-        <v>30856160</v>
+        <v>14438037</v>
       </c>
       <c r="I21" t="n">
-        <v>30856160</v>
+        <v>14438276</v>
       </c>
       <c r="J21" t="n">
-        <v>118060</v>
+        <v>43754</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>15428080</v>
+        <v>7219018</v>
       </c>
       <c r="M21" t="n">
-        <v>30738099</v>
+        <v>14394282</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>109815896.300926</v>
+        <v>78213429.3</v>
       </c>
       <c r="P21" t="n">
-        <v>74806831.2692228</v>
+        <v>43160675.4713466</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>27103568</v>
+        <v>16330062</v>
       </c>
       <c r="S21" t="n">
-        <v>39076529</v>
+        <v>22671262</v>
       </c>
       <c r="T21" t="n">
-        <v>39076529</v>
+        <v>22602420</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
@@ -2236,15 +2229,181 @@
       <c r="X21" t="s"/>
       <c r="Y21" t="s"/>
       <c r="Z21" t="n">
+        <v>127153174</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>27282610204</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1845891</v>
+      </c>
+      <c r="F22" t="n">
+        <v>40817429</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9958130</v>
+      </c>
+      <c r="H22" t="n">
+        <v>46208895</v>
+      </c>
+      <c r="I22" t="n">
+        <v>52097929</v>
+      </c>
+      <c r="J22" t="n">
+        <v>128890</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>23104447</v>
+      </c>
+      <c r="M22" t="n">
+        <v>46080004</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>160884708</v>
+      </c>
+      <c r="P22" t="n">
+        <v>54230273</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>141489281</v>
+      </c>
+      <c r="R22" t="n">
+        <v>147948720</v>
+      </c>
+      <c r="S22" t="n">
+        <v>290486409</v>
+      </c>
+      <c r="T22" t="n">
+        <v>287854418</v>
+      </c>
+      <c r="U22" t="n">
+        <v>10</v>
+      </c>
+      <c r="V22" t="n">
+        <v>23</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>234240464</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>323815835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1232601</v>
+      </c>
+      <c r="F23" t="s"/>
+      <c r="G23" t="s"/>
+      <c r="H23" t="n">
+        <v>30856160</v>
+      </c>
+      <c r="I23" t="n">
+        <v>30856160</v>
+      </c>
+      <c r="J23" t="n">
+        <v>118060</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>15428080</v>
+      </c>
+      <c r="M23" t="n">
+        <v>30738099</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>109815896.300926</v>
+      </c>
+      <c r="P23" t="n">
+        <v>74806831.2692228</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>27103568</v>
+      </c>
+      <c r="S23" t="n">
+        <v>39076529</v>
+      </c>
+      <c r="T23" t="n">
+        <v>39076529</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>14</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+      <c r="Z23" t="n">
         <v>158282316</v>
       </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
         <v>66884545302</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC23" t="n">
         <v>0</v>
       </c>
     </row>
